--- a/InputData/trans/BRAaCTSC/BAU Rng Anxiety and Charge Time Shadow Costs.xlsx
+++ b/InputData/trans/BRAaCTSC/BAU Rng Anxiety and Charge Time Shadow Costs.xlsx
@@ -1,32 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\trans\BRAaCTSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gngna\Documents\Cenergia\EPS\Revisão\trans\BRAaCTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF882C9-83E9-4F17-8D34-1547EDD79AB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500"/>
+    <workbookView xWindow="15" yWindow="0" windowWidth="20475" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="BRAaCTSC" sheetId="3" r:id="rId3"/>
+    <sheet name="Brazil Data" sheetId="4" r:id="rId3"/>
+    <sheet name="BRAaCTSC" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>Source:</t>
   </si>
@@ -104,12 +114,48 @@
   </si>
   <si>
     <t>Cost ($/vehicle)</t>
+  </si>
+  <si>
+    <t>For the BAU case, electric vehicles (EVs) are not applied due to the absence of public politics to develop this technology in the country,</t>
+  </si>
+  <si>
+    <t>Brazilian Case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">so we have no data for the variable Range Anxiety and Charging Time Shadow Cost, which is related to EVs. </t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>EUA</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>GDP per capita 2019</t>
+  </si>
+  <si>
+    <t>https://www.ibge.gov.br</t>
+  </si>
+  <si>
+    <t>https://www.worldbank.org/</t>
+  </si>
+  <si>
+    <t>GDP per capita BR/GDP per capita EUA</t>
+  </si>
+  <si>
+    <t>Sources:</t>
+  </si>
+  <si>
+    <t>As this variable is important in order to explore EVs policies, we assumed US EPS values multiplied by the ratio: GDP per capita Brazil/GDP per capita US</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -138,7 +184,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,6 +194,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -165,7 +217,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -179,9 +231,10 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -214,7 +267,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -508,11 +567,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,67 +609,89 @@
         <v>4</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
+      <c r="A11" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>24</v>
+      <c r="A13" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>1.0529130131709286</v>
+      </c>
+    </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>1.0529130131709286</v>
+      <c r="A21" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -680,7 +761,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="7">
-        <f>B5*About!A21</f>
+        <f>B5*About!A19</f>
         <v>3729.0669216470392</v>
       </c>
       <c r="C6" t="s">
@@ -694,259 +775,356 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F46A6936-50CA-4D43-A797-B64ED421ECFE}">
+  <dimension ref="A2:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>65456</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3">
+        <f>B4/B3</f>
+        <v>0.21300740687224534</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="5">
+        <v>13942.612824229691</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{EBB374C0-668F-4A0F-9743-4D4CE335BDA0}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="2" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="8">
+        <v>2015</v>
+      </c>
+      <c r="C1" s="8">
+        <v>2016</v>
+      </c>
+      <c r="D1" s="8">
+        <v>2017</v>
+      </c>
+      <c r="E1" s="6">
         <v>2018</v>
       </c>
-      <c r="C1">
+      <c r="F1">
         <v>2019</v>
       </c>
-      <c r="D1" s="6">
+      <c r="G1" s="6">
         <v>2020</v>
       </c>
-      <c r="E1">
+      <c r="H1">
         <v>2021</v>
       </c>
-      <c r="F1" s="6">
+      <c r="I1" s="6">
         <v>2022</v>
       </c>
-      <c r="G1">
+      <c r="J1">
         <v>2023</v>
       </c>
-      <c r="H1" s="6">
+      <c r="K1" s="6">
         <v>2024</v>
       </c>
-      <c r="I1">
+      <c r="L1">
         <v>2025</v>
       </c>
-      <c r="J1" s="6">
+      <c r="M1" s="6">
         <v>2026</v>
       </c>
-      <c r="K1">
+      <c r="N1">
         <v>2027</v>
       </c>
-      <c r="L1" s="6">
+      <c r="O1" s="6">
         <v>2028</v>
       </c>
-      <c r="M1">
+      <c r="P1">
         <v>2029</v>
       </c>
-      <c r="N1" s="6">
+      <c r="Q1" s="6">
         <v>2030</v>
       </c>
-      <c r="O1">
+      <c r="R1">
         <v>2031</v>
       </c>
-      <c r="P1" s="6">
+      <c r="S1" s="6">
         <v>2032</v>
       </c>
-      <c r="Q1">
+      <c r="T1">
         <v>2033</v>
       </c>
-      <c r="R1" s="6">
+      <c r="U1" s="6">
         <v>2034</v>
       </c>
-      <c r="S1">
+      <c r="V1">
         <v>2035</v>
       </c>
-      <c r="T1" s="6">
+      <c r="W1" s="6">
         <v>2036</v>
       </c>
-      <c r="U1">
+      <c r="X1">
         <v>2037</v>
       </c>
-      <c r="V1" s="6">
+      <c r="Y1" s="6">
         <v>2038</v>
       </c>
-      <c r="W1">
+      <c r="Z1">
         <v>2039</v>
       </c>
-      <c r="X1" s="6">
+      <c r="AA1" s="6">
         <v>2040</v>
       </c>
-      <c r="Y1">
+      <c r="AB1">
         <v>2041</v>
       </c>
-      <c r="Z1" s="6">
+      <c r="AC1" s="6">
         <v>2042</v>
       </c>
-      <c r="AA1">
+      <c r="AD1">
         <v>2043</v>
       </c>
-      <c r="AB1" s="6">
+      <c r="AE1" s="6">
         <v>2044</v>
       </c>
-      <c r="AC1">
+      <c r="AF1">
         <v>2045</v>
       </c>
-      <c r="AD1" s="6">
+      <c r="AG1" s="6">
         <v>2046</v>
       </c>
-      <c r="AE1">
+      <c r="AH1">
         <v>2047</v>
       </c>
-      <c r="AF1" s="6">
+      <c r="AI1" s="6">
         <v>2048</v>
       </c>
-      <c r="AG1">
+      <c r="AJ1">
         <v>2049</v>
       </c>
-      <c r="AH1" s="6">
+      <c r="AK1" s="6">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="5">
-        <f>Data!B6</f>
-        <v>3729.0669216470392</v>
+        <f>$E2</f>
+        <v>794.31887503310236</v>
       </c>
       <c r="C2" s="5">
-        <f>$B2</f>
-        <v>3729.0669216470392</v>
+        <f>$E2</f>
+        <v>794.31887503310236</v>
       </c>
       <c r="D2" s="5">
-        <f t="shared" ref="D2:AH2" si="0">$B2</f>
-        <v>3729.0669216470392</v>
+        <f>$E2</f>
+        <v>794.31887503310236</v>
       </c>
       <c r="E2" s="5">
-        <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <f>Data!B6*'Brazil Data'!E3</f>
+        <v>794.31887503310236</v>
       </c>
       <c r="F2" s="5">
-        <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <f>$E2</f>
+        <v>794.31887503310236</v>
       </c>
       <c r="G2" s="5">
-        <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <f t="shared" ref="G2:AK2" si="0">$E2</f>
+        <v>794.31887503310236</v>
       </c>
       <c r="H2" s="5">
         <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <v>794.31887503310236</v>
       </c>
       <c r="I2" s="5">
         <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <v>794.31887503310236</v>
       </c>
       <c r="J2" s="5">
         <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <v>794.31887503310236</v>
       </c>
       <c r="K2" s="5">
         <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <v>794.31887503310236</v>
       </c>
       <c r="L2" s="5">
         <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <v>794.31887503310236</v>
       </c>
       <c r="M2" s="5">
         <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <v>794.31887503310236</v>
       </c>
       <c r="N2" s="5">
         <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <v>794.31887503310236</v>
       </c>
       <c r="O2" s="5">
         <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <v>794.31887503310236</v>
       </c>
       <c r="P2" s="5">
         <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <v>794.31887503310236</v>
       </c>
       <c r="Q2" s="5">
         <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <v>794.31887503310236</v>
       </c>
       <c r="R2" s="5">
         <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <v>794.31887503310236</v>
       </c>
       <c r="S2" s="5">
         <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <v>794.31887503310236</v>
       </c>
       <c r="T2" s="5">
         <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <v>794.31887503310236</v>
       </c>
       <c r="U2" s="5">
         <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <v>794.31887503310236</v>
       </c>
       <c r="V2" s="5">
         <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <v>794.31887503310236</v>
       </c>
       <c r="W2" s="5">
         <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <v>794.31887503310236</v>
       </c>
       <c r="X2" s="5">
         <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <v>794.31887503310236</v>
       </c>
       <c r="Y2" s="5">
         <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <v>794.31887503310236</v>
       </c>
       <c r="Z2" s="5">
         <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <v>794.31887503310236</v>
       </c>
       <c r="AA2" s="5">
         <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <v>794.31887503310236</v>
       </c>
       <c r="AB2" s="5">
         <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <v>794.31887503310236</v>
       </c>
       <c r="AC2" s="5">
         <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <v>794.31887503310236</v>
       </c>
       <c r="AD2" s="5">
         <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <v>794.31887503310236</v>
       </c>
       <c r="AE2" s="5">
         <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <v>794.31887503310236</v>
       </c>
       <c r="AF2" s="5">
         <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <v>794.31887503310236</v>
       </c>
       <c r="AG2" s="5">
         <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <v>794.31887503310236</v>
       </c>
       <c r="AH2" s="5">
         <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <v>794.31887503310236</v>
+      </c>
+      <c r="AI2" s="5">
+        <f t="shared" si="0"/>
+        <v>794.31887503310236</v>
+      </c>
+      <c r="AJ2" s="5">
+        <f t="shared" si="0"/>
+        <v>794.31887503310236</v>
+      </c>
+      <c r="AK2" s="5">
+        <f t="shared" si="0"/>
+        <v>794.31887503310236</v>
       </c>
     </row>
   </sheetData>
